--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2912841.794477467</v>
+        <v>3064451.772336185</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114762</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4959237.385453117</v>
+        <v>5230611.36818358</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>134.0745759093587</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>227.5023016754095</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -829,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>149.555360487608</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -871,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>107.0925810869874</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>135.7074041394968</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -911,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>89.05954170860153</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1102,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>107.547401993793</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1620808215039</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1139,13 +1141,13 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>159.7427132663</v>
+        <v>392.5526506513928</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>192.59877140967</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>275.4456940311496</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>13.06117925371059</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396377</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>50.94722270604672</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396377</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>106.6083155152695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>89.32094406942046</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1819,19 +1821,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>235.6659313230393</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1850,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>124.6208153834339</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2087,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>3.602641900785378</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>243.5379897051801</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2530,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.9935954212821</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>151.6934851522973</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>207.1408703273363</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2950,19 +2952,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>161.0147812536082</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -3001,7 +3003,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>110.9568249417323</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3196,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>4.136508108166636</v>
       </c>
       <c r="U34" t="n">
-        <v>243.6442667821798</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>170.7512152514375</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3554,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>137.4695914740406</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.037845294253438</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3721,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,25 +3742,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407062</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.54790254396357</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>231.9003376417373</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>98.15366458398638</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3961,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>17.05840675895594</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>418.6536003862311</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396485</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>148.0086458060447</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.26334559068059</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>824.2522897001689</v>
+        <v>1506.281939527792</v>
       </c>
       <c r="C2" t="n">
-        <v>801.3919637538731</v>
+        <v>1079.381209541092</v>
       </c>
       <c r="D2" t="n">
-        <v>782.1397469792774</v>
+        <v>656.0885887260922</v>
       </c>
       <c r="E2" t="n">
-        <v>760.2032111675391</v>
+        <v>230.1116488739498</v>
       </c>
       <c r="F2" t="n">
-        <v>335.0790293569393</v>
+        <v>209.0278711037541</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>73.59900654884632</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884632</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="J2" t="n">
-        <v>358.3859952497895</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>358.3859952497895</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>815.1719019525203</v>
+        <v>401.305594109213</v>
       </c>
       <c r="M2" t="n">
-        <v>1271.957808655251</v>
+        <v>498.289991888588</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.957808655251</v>
+        <v>977.2289161310174</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.957808655251</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="U2" t="n">
-        <v>1482.877419510889</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="V2" t="n">
-        <v>1482.877419510889</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="W2" t="n">
-        <v>1253.077114788254</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.397519996405</v>
+        <v>1927.427169824027</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.060249951295</v>
+        <v>1926.130303819322</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000795</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1445421254694</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="M3" t="n">
-        <v>957.9304488282003</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>996.5799837771763</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1475.518908019606</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1104.902165973849</v>
+        <v>949.9106946954704</v>
       </c>
       <c r="C4" t="n">
-        <v>932.9296028527654</v>
+        <v>949.9106946954704</v>
       </c>
       <c r="D4" t="n">
-        <v>769.6128299795361</v>
+        <v>786.5939218222411</v>
       </c>
       <c r="E4" t="n">
-        <v>603.4046241323896</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="F4" t="n">
-        <v>431.54284990695</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>265.2297364981547</v>
       </c>
       <c r="L4" t="n">
-        <v>303.8948463526241</v>
+        <v>393.4019879271634</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>784.5877828974142</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.07929377345</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453213</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1366.419431717794</v>
       </c>
       <c r="V4" t="n">
-        <v>1104.902165973849</v>
+        <v>1366.419431717794</v>
       </c>
       <c r="W4" t="n">
-        <v>1104.902165973849</v>
+        <v>1366.419431717794</v>
       </c>
       <c r="X4" t="n">
-        <v>1104.902165973849</v>
+        <v>1366.419431717794</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.902165973849</v>
+        <v>1140.076663407536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.383448253599</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C5" t="n">
-        <v>997.5231223073034</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D5" t="n">
-        <v>574.2305014923037</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E5" t="n">
-        <v>552.2939656805653</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>127.1697838699655</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>126.8711254998182</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L5" t="n">
-        <v>932.7282368344229</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>932.7282368344229</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>1389.514143537154</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1449.208273341684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1441.528678549835</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1440.231812545129</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>308.6094817404178</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>308.6094817404178</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>765.3953884431487</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.18129514588</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1222.18129514588</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.2543032995479</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>466.2543032995479</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>302.9375304263186</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>302.9375304263186</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2069.238899761879</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1825.899551987779</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.086614473545</v>
+        <v>1825.899551987779</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.086614473545</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W7" t="n">
-        <v>1125.326936876066</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X7" t="n">
-        <v>882.7630403218716</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4202720116136</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.441528830622</v>
+        <v>526.1489102928739</v>
       </c>
       <c r="C8" t="n">
-        <v>664.5812028843262</v>
+        <v>503.2885843465781</v>
       </c>
       <c r="D8" t="n">
-        <v>645.3289861097305</v>
+        <v>484.0363675719825</v>
       </c>
       <c r="E8" t="n">
-        <v>219.3520462575881</v>
+        <v>462.0998317602441</v>
       </c>
       <c r="F8" t="n">
-        <v>198.2682684873924</v>
+        <v>441.0160539900484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>950.4838058662885</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>1407.269712569019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1520.30675795911</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1520.30675795911</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W8" t="n">
-        <v>1520.30675795911</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X8" t="n">
-        <v>1512.627163167262</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y8" t="n">
-        <v>1107.289893122152</v>
+        <v>945.997274584404</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>950.4838058662885</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>950.4838058662885</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
-        <v>1407.269712569019</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O9" t="n">
-        <v>1763.580312956633</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956633</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>710.2713085277261</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="C10" t="n">
-        <v>538.2987454066421</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D10" t="n">
-        <v>374.9819725334128</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E10" t="n">
-        <v>208.7737666862663</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1651.055409496216</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="V10" t="n">
-        <v>1369.343942104244</v>
+        <v>1533.208883438572</v>
       </c>
       <c r="W10" t="n">
-        <v>1369.343942104244</v>
+        <v>1258.356479611085</v>
       </c>
       <c r="X10" t="n">
-        <v>1126.78004555005</v>
+        <v>1015.792583056891</v>
       </c>
       <c r="Y10" t="n">
-        <v>900.4372772397917</v>
+        <v>789.4498147466326</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2191.310894995276</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1764.410165008576</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1341.117544193577</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>915.1406043414341</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>490.0164225308343</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G11" t="n">
-        <v>85.67736012028297</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623576</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1684.985148555618</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1764.518912300143</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N11" t="n">
-        <v>2661.511503117262</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>3506.656153268074</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268074</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3365.857578746389</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3008.368163872638</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3008.368163872638</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2596.648165040386</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2191.310894995276</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.17432985971</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1241.17432985971</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1241.17432985971</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1905.083108311405</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>1905.083108311405</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>1905.083108311405</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>1905.083108311405</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>1853.621267194186</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>1687.364297488418</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>1543.568028996573</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>1443.799460736848</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1501.290788961006</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1727.818390166844</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>2082.507711461265</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2473.693506431515</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2851.185017307551</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>3206.613145987314</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3497.212357909215</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3624.212488149977</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3624.212488149977</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>3454.077440669112</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>3210.738092895012</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>2930.553644395316</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>2648.842177003345</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>2373.989773175858</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>2131.425876621663</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1905.083108311405</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2106.543972009935</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1679.643242023235</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1256.350621208236</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>830.3736813560934</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>405.2494995454935</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623576</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>787.9925577384986</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L14" t="n">
-        <v>787.9925577384986</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>787.9925577384986</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>1497.146744455151</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>2342.291394605963</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.570673763891</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3403.28691719461</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3403.28691719461</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3045.797502320859</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3045.797502320859</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2634.077503488606</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2526.392336301466</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>520.0338126636109</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.02640348073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.02640348073</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>839.8965406743068</v>
+        <v>796.7321961672484</v>
       </c>
       <c r="C16" t="n">
-        <v>839.8965406743068</v>
+        <v>624.7596330461644</v>
       </c>
       <c r="D16" t="n">
-        <v>676.5797678010775</v>
+        <v>624.7596330461644</v>
       </c>
       <c r="E16" t="n">
-        <v>510.3715619539311</v>
+        <v>458.5514271990179</v>
       </c>
       <c r="F16" t="n">
-        <v>338.5097877284915</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.19675910049</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976526</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656289</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.677127506125</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.54208002526</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251159</v>
       </c>
       <c r="U16" t="n">
-        <v>1554.337873332538</v>
+        <v>1822.202732251159</v>
       </c>
       <c r="V16" t="n">
-        <v>1272.626405940567</v>
+        <v>1540.491264859188</v>
       </c>
       <c r="W16" t="n">
-        <v>1272.626405940567</v>
+        <v>1265.638861031701</v>
       </c>
       <c r="X16" t="n">
-        <v>1030.062509386373</v>
+        <v>1023.074964477506</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.062509386373</v>
+        <v>796.7321961672484</v>
       </c>
     </row>
     <row r="17">
@@ -5501,37 +5503,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>903.7433331113961</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1833.368380730673</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.654482149731</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636432</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.9257087544852</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>806.9257087544852</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>643.6089358812559</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>643.6089358812559</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>471.7471616558163</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5701,22 +5703,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1550.684777446425</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.832373618938</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1033.268477064743</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>806.9257087544852</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3516.406223561076</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C22" t="n">
-        <v>3516.406223561076</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D22" t="n">
-        <v>3516.406223561076</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>277.8035198542836</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>105.9417456288441</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>4701.661275036462</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>4421.476826536767</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>4421.476826536767</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>4175.478857137595</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>3932.9149605834</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y22" t="n">
-        <v>3706.572192273141</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2988.069926596602</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1165.735894343786</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>875.4793615910734</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>703.5067984699893</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>540.1900255967601</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>540.1900255967601</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1540.491264859194</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1265.638861031707</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1265.638861031707</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1065.645330303139</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.1902889499656</v>
+        <v>3746.273422917372</v>
       </c>
       <c r="C28" t="n">
-        <v>584.2177258288816</v>
+        <v>3574.300859796288</v>
       </c>
       <c r="D28" t="n">
-        <v>584.2177258288816</v>
+        <v>3410.984086923059</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>4961.909927713349</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>4961.909927713349</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>4961.909927713349</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>4680.198460321378</v>
       </c>
       <c r="W28" t="n">
-        <v>1155.589460012876</v>
+        <v>4405.346056493891</v>
       </c>
       <c r="X28" t="n">
-        <v>946.3562576620313</v>
+        <v>4162.782159939696</v>
       </c>
       <c r="Y28" t="n">
-        <v>946.3562576620313</v>
+        <v>3936.439391629438</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>843.7980793371744</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="C31" t="n">
-        <v>671.8255162160904</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D31" t="n">
-        <v>508.5087433428611</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E31" t="n">
-        <v>508.5087433428611</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>508.5087433428611</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
         <v>345.8675501573982</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1260.306816359498</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>1260.306816359498</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>1033.96404804924</v>
+        <v>874.1522628006715</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>338.650469582768</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1054.158777558267</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1983.783825177544</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6777,19 +6779,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3436.220184719758</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="C34" t="n">
-        <v>3264.247621598674</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D34" t="n">
-        <v>3100.930848725445</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>4897.962009497735</v>
+        <v>2061.363789006915</v>
       </c>
       <c r="U34" t="n">
-        <v>4651.856689515736</v>
+        <v>1781.179340507219</v>
       </c>
       <c r="V34" t="n">
-        <v>4370.145222123764</v>
+        <v>1781.179340507219</v>
       </c>
       <c r="W34" t="n">
-        <v>4095.292818296277</v>
+        <v>1506.326936679732</v>
       </c>
       <c r="X34" t="n">
-        <v>3852.728921742082</v>
+        <v>1263.763040125537</v>
       </c>
       <c r="Y34" t="n">
-        <v>3626.386153431824</v>
+        <v>1037.420271815279</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1007.532766690842</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690842</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.8188681099</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>305.3113489363686</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M36" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7123,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1893.066105023813</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1893.066105023813</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1618.213701196326</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7174,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7184,40 +7186,40 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100784</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251596</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>528.0267489559496</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.1944999357521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>850.1944999357521</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2273.586604158095</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2103.45155667723</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2103.45155667723</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>1823.267108177534</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>1541.555640785563</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W40" t="n">
-        <v>1266.703236958076</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.703236958076</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="Y40" t="n">
-        <v>1040.360468647818</v>
+        <v>1324.342009136167</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1325.24011479915</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1325.24011479915</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>901.9474939841507</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>72.48424976299951</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>107.3991016587881</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1004.391692475907</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>1901.384283293026</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2798.376874110145</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>2798.376874110145</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3506.656153268073</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149975</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.932007791021</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2787.44259291727</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2391.051243217617</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>1979.331244385365</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1745.08847909068</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491135</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>79.93089272491135</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>670.4158192932509</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>670.4158192932509</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>984.1792895263906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1881.171880343509</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>712.0624666809887</v>
+        <v>373.4203922683129</v>
       </c>
       <c r="C43" t="n">
-        <v>712.0624666809887</v>
+        <v>201.4478291472289</v>
       </c>
       <c r="D43" t="n">
-        <v>548.7456938077594</v>
+        <v>201.4478291472289</v>
       </c>
       <c r="E43" t="n">
-        <v>382.537487960613</v>
+        <v>201.4478291472289</v>
       </c>
       <c r="F43" t="n">
-        <v>382.537487960613</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>216.2805182548451</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358176</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302383</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100489</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976525</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656288</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578189</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2112.580693338085</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>1869.241345563985</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.19982010864</v>
+        <v>1589.05689706429</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.488352716669</v>
+        <v>1307.345429672318</v>
       </c>
       <c r="W43" t="n">
-        <v>955.6359488891819</v>
+        <v>1032.493025844831</v>
       </c>
       <c r="X43" t="n">
-        <v>938.4052349912466</v>
+        <v>789.9291292906365</v>
       </c>
       <c r="Y43" t="n">
-        <v>712.0624666809887</v>
+        <v>563.5863609803786</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2208.996350540378</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C44" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E44" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988754</v>
       </c>
       <c r="G44" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883239</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623587</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>600.1541536380306</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>600.1541536380306</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>600.1541536380306</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.146744455149</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605962</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763889</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664161</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3040.564713664161</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.564713664161</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2628.844714831908</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2628.844714831908</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491135</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>942.113308572842</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>942.113308572842</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>942.113308572842</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>942.113308572842</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1335.007093396027</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>343.6019286254902</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="C46" t="n">
-        <v>343.6019286254902</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D46" t="n">
-        <v>343.6019286254902</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6019286254902</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F46" t="n">
-        <v>171.7401544000506</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G46" t="n">
-        <v>171.7401544000506</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
-        <v>171.7401544000506</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1559.238433421467</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.526966029496</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.674562202009</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>760.1106656478138</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>533.7678973375558</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>354.1411744239327</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>135.3953010604167</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884151</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099931</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642003</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662971</v>
       </c>
       <c r="N3" t="n">
-        <v>456.5786519614261</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761913</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587978</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>315.5263794693004</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>233.5263615801855</v>
+        <v>151.3856805310635</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>450.7747902674474</v>
       </c>
       <c r="L5" t="n">
-        <v>115.5109099618853</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>465.9489063640446</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>107.2386302028318</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>480.1484446815972</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>383.0815870834484</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8620,13 +8622,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>320.1078160920833</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>117.7683979949114</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498222</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>585.3852254463402</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,16 +8929,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>753.5969831542968</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8948,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9012,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>467.6451844908124</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510358</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>479.0344602783164</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9401,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
@@ -9410,7 +9412,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>848.7638096822445</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>691.2775126154099</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9738,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>398.9108788555778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>268.1550667350203</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10358,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>677.1461373703553</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>583.8722719747261</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10668,19 +10670,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>227.574314522856</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>997.2808002453501</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>370.4410136063919</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>170.459742225877</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>979.1626539795797</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10920,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>71.0321279622726</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701167</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369256</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719399</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>340.0295787276206</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510355</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>202.498383681815</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719399</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>574.3586489309258</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11391,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>418.6332501171366</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>281.8285154869949</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23425,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>119.1959337771385</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.675581829389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.82221241376472</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>41.71667269165945</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>39.97358462527632</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.9917581079248</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>28.56589008403205</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.08574520587331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>16.74021185375918</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>32.99738726131662</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.57961875510199</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>113.122515685423</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>236.7694461881924</v>
       </c>
       <c r="U34" t="n">
-        <v>33.73833723251892</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>106.6313887632612</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>50.79471755090444</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.53038188544514</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>169.3835597029212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991988</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>223.079850829697</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>3.978122300601797</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.25566321890028</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5075369864461976</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>459043.2372304266</v>
+        <v>459272.7190756231</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>459043.2372304266</v>
+        <v>460015.7309453726</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459043.2372304266</v>
+        <v>460015.7309453726</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357718.5131756503</v>
+        <v>449889.6758295057</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357718.5131756503</v>
+        <v>449889.6758295055</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>449889.6758295056</v>
+        <v>449889.6758295057</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357718.5131756502</v>
+        <v>449889.6758295055</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357718.5131756503</v>
+        <v>449889.6758295057</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.6013108839</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="D2" t="n">
-        <v>567881.6013108842</v>
+        <v>567881.6013108838</v>
       </c>
       <c r="E2" t="n">
-        <v>435717.2692283597</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="F2" t="n">
-        <v>435717.2692283598</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="G2" t="n">
+        <v>547979.6430590111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="I2" t="n">
         <v>547979.6430590109</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>547979.6430590111</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547979.643059011</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547979.643059011</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547979.6430590113</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547979.6430590113</v>
+      </c>
+      <c r="O2" t="n">
         <v>547979.6430590107</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>547979.643059011</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547979.643059011</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547979.6430590111</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547979.6430590111</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547979.6430590107</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547979.6430590109</v>
-      </c>
-      <c r="O2" t="n">
-        <v>435717.2692283597</v>
-      </c>
-      <c r="P2" t="n">
-        <v>435717.2692283596</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695916</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361188</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701952</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168860.431333321</v>
+        <v>163968.7154446946</v>
       </c>
       <c r="C4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792738</v>
       </c>
       <c r="F4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.1736579273</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792739</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792738</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792743</v>
@@ -26451,13 +26453,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792738</v>
       </c>
       <c r="O4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792733</v>
       </c>
       <c r="P4" t="n">
-        <v>12002.98750317895</v>
+        <v>15116.17365792735</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216132</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182714.7350892141</v>
+        <v>178746.9669744364</v>
       </c>
       <c r="C6" t="n">
-        <v>337340.4557073346</v>
+        <v>328898.10403083</v>
       </c>
       <c r="D6" t="n">
-        <v>337340.4557073349</v>
+        <v>352304.9377044415</v>
       </c>
       <c r="E6" t="n">
-        <v>235862.5838956993</v>
+        <v>239374.0506560131</v>
       </c>
       <c r="F6" t="n">
-        <v>368626.2519053012</v>
+        <v>455113.4072126538</v>
       </c>
       <c r="G6" t="n">
-        <v>352953.4871183438</v>
+        <v>455113.407212654</v>
       </c>
       <c r="H6" t="n">
-        <v>455113.4072126536</v>
+        <v>455113.4072126535</v>
       </c>
       <c r="I6" t="n">
+        <v>455113.4072126537</v>
+      </c>
+      <c r="J6" t="n">
+        <v>328536.1386323649</v>
+      </c>
+      <c r="K6" t="n">
+        <v>436466.8068556344</v>
+      </c>
+      <c r="L6" t="n">
         <v>455113.4072126538</v>
       </c>
-      <c r="J6" t="n">
-        <v>334390.8902698969</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>275049.5357574865</v>
+      </c>
+      <c r="N6" t="n">
+        <v>455113.4072126542</v>
+      </c>
+      <c r="O6" t="n">
+        <v>455113.4072126538</v>
+      </c>
+      <c r="P6" t="n">
         <v>455113.407212654</v>
-      </c>
-      <c r="L6" t="n">
-        <v>455113.407212654</v>
-      </c>
-      <c r="M6" t="n">
-        <v>344304.0471035204</v>
-      </c>
-      <c r="N6" t="n">
-        <v>455113.4072126538</v>
-      </c>
-      <c r="O6" t="n">
-        <v>368626.2519053012</v>
-      </c>
-      <c r="P6" t="n">
-        <v>368626.251905301</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374938</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374938</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162506</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162506</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162506</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>266.2210958770871</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>164.925134527247</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.03903952110215</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>170.2900229277113</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27603,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>279.9424765091179</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>205.830153032104</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>60.88629501226347</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>14.94179896770822</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>240.5529585201459</v>
+        <v>7.743021135053027</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>84.78383260502875</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.448658686901808</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>324.7212149383462</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>97.96403816098486</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="N3" t="n">
-        <v>435.2356237478845</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>292.7793411803219</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>211.6076016844843</v>
+        <v>129.4669206353623</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>415.010189472638</v>
       </c>
       <c r="L5" t="n">
-        <v>77.19886752926243</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>359.9096973612262</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35340,13 +35342,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>299.3589151164829</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>80.33713509547957</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>563.6143842415115</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>716.3173603198508</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35668,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>444.5484039784844</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374942</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366115</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>443.269859483507</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>811.4841868477985</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>669.9344844018683</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>361.4796159561459</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>238.7351072494338</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37078,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>548.1076711799168</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>205.0592278086264</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>974.1840197330221</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>333.1613907719459</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>148.0605083925437</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>35.26752716746326</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374938</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374938</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>316.9327982152926</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374938</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937687</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -38017,19 +38019,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>166.7337828870056</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374938</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>396.862408912308</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3064451.772336185</v>
+        <v>3063755.111131093</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114762</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>134.0745759093587</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>175.8993704642195</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>49.31147601367128</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>107.0925810869874</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.7074041394968</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>279.5520596183842</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>107.547401993793</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1138,16 +1138,16 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>392.5526506513928</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812020955</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1305,7 +1305,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>275.4456940311496</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396377</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.2748171257525</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>133.0791037818806</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396377</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>26.65965921411073</v>
       </c>
       <c r="F16" t="n">
-        <v>89.32094406942046</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>177.7920707512136</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>177.0325524263241</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>3.602641900785378</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2538,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>189.6722468714689</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2733,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>151.6934851522973</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>100.8527468532279</v>
       </c>
     </row>
     <row r="29">
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2970,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>121.8170956905235</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.9568249417323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -3240,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>4.136508108166636</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>21.33200671549699</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3426,13 +3426,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>205.549591283488</v>
       </c>
       <c r="U37" t="n">
-        <v>170.7512152514375</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.4695914740406</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3678,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>218.9989885011893</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3748,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407062</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396357</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>98.15366458398638</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>161.0147812536083</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3988,16 +3988,16 @@
         <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396485</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.0086458060447</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>55.53378699048364</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.281939527792</v>
+        <v>301.8097817473302</v>
       </c>
       <c r="C2" t="n">
-        <v>1079.381209541092</v>
+        <v>278.9494558010344</v>
       </c>
       <c r="D2" t="n">
-        <v>656.0885887260922</v>
+        <v>259.6972390264388</v>
       </c>
       <c r="E2" t="n">
-        <v>230.1116488739498</v>
+        <v>237.7607032147004</v>
       </c>
       <c r="F2" t="n">
-        <v>209.0278711037541</v>
+        <v>216.6769254445047</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884632</v>
+        <v>216.3782670743574</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884632</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231753</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>401.305594109213</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="L2" t="n">
-        <v>401.305594109213</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="M2" t="n">
-        <v>498.289991888588</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="N2" t="n">
-        <v>977.2289161310174</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373447</v>
+        <v>1479.021285111693</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615876</v>
+        <v>1479.021285111693</v>
       </c>
       <c r="Q2" t="n">
         <v>1935.106764615876</v>
@@ -4369,13 +4369,13 @@
         <v>1935.106764615876</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615876</v>
+        <v>1538.715414916223</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.427169824027</v>
+        <v>1126.99541608397</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.130303819322</v>
+        <v>721.6581460388603</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000795</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231753</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231753</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231753</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231753</v>
+        <v>796.7851917762497</v>
       </c>
       <c r="L3" t="n">
-        <v>38.70213529231753</v>
+        <v>796.7851917762497</v>
       </c>
       <c r="M3" t="n">
-        <v>517.6410595347469</v>
+        <v>796.7851917762497</v>
       </c>
       <c r="N3" t="n">
-        <v>517.6410595347469</v>
+        <v>796.7851917762497</v>
       </c>
       <c r="O3" t="n">
-        <v>996.5799837771763</v>
+        <v>822.2860546829156</v>
       </c>
       <c r="P3" t="n">
-        <v>1475.518908019606</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
         <v>1765.370455788124</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>949.9106946954704</v>
+        <v>260.4842701443826</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954704</v>
+        <v>88.51170702329861</v>
       </c>
       <c r="D4" t="n">
-        <v>786.5939218222411</v>
+        <v>88.51170702329861</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750946</v>
+        <v>88.51170702329861</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>88.51170702329861</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438872</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520416</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231753</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231753</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981547</v>
+        <v>165.7127968735044</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271634</v>
+        <v>520.4021181679252</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974142</v>
+        <v>911.587913138176</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.07929377345</v>
+        <v>1289.079424014212</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453213</v>
+        <v>1644.507552693975</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375114</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615876</v>
@@ -4521,19 +4521,19 @@
         <v>1474.593756048084</v>
       </c>
       <c r="U4" t="n">
-        <v>1366.419431717794</v>
+        <v>1194.409307548388</v>
       </c>
       <c r="V4" t="n">
-        <v>1366.419431717794</v>
+        <v>1194.409307548388</v>
       </c>
       <c r="W4" t="n">
-        <v>1366.419431717794</v>
+        <v>919.5569037209011</v>
       </c>
       <c r="X4" t="n">
-        <v>1366.419431717794</v>
+        <v>676.9930071667062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1140.076663407536</v>
+        <v>450.6502388564483</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.856605666331</v>
+        <v>412.0068991484208</v>
       </c>
       <c r="C5" t="n">
-        <v>1651.955875679631</v>
+        <v>389.146573202125</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.663254864631</v>
+        <v>369.8943564275293</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>347.9578206157909</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>326.8740428455952</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1237.19253348506</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>831.8552634399508</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4749,22 +4749,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2069.238899761879</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1825.899551987779</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1825.899551987779</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1544.188084595808</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1544.188084595808</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
         <v>1544.188084595808</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>526.1489102928739</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>503.2885843465781</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>484.0363675719825</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0998317602441</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>441.0160539900484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.054543461766</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1763.054543461766</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1351.334544629514</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>945.997274584404</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>51.94486801115937</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>602.6104029955975</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>602.6104029955975</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.4498147466326</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>789.4498147466326</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1330418734033</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262568</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.208883438572</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.356479611085</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1015.792583056891</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>789.4498147466326</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>3105.626261478504</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629316</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N12" t="n">
-        <v>1021.509065974867</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.1370507523521</v>
+        <v>778.6022263052664</v>
       </c>
       <c r="C13" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D13" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E13" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
         <v>102.3027134058285</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.493025844838</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X13" t="n">
-        <v>789.9291292906429</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.5863609803849</v>
+        <v>778.6022263052664</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N15" t="n">
-        <v>648.6278400003578</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O15" t="n">
-        <v>648.6278400003578</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P15" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>796.7321961672484</v>
+        <v>879.947609078273</v>
       </c>
       <c r="C16" t="n">
-        <v>624.7596330461644</v>
+        <v>707.975045957189</v>
       </c>
       <c r="D16" t="n">
-        <v>624.7596330461644</v>
+        <v>544.6582730839597</v>
       </c>
       <c r="E16" t="n">
-        <v>458.5514271990179</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5436,52 +5436,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.19675910049</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976526</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656289</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.71561057819</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506125</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.54208002526</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251159</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251159</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.491264859188</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.638861031701</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.074964477506</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.7321961672484</v>
+        <v>1070.113577790339</v>
       </c>
     </row>
     <row r="17">
@@ -5503,61 +5503,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4478291472353</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4478291472353</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E19" t="n">
-        <v>201.4478291472353</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1812.749829478279</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1531.038362086308</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1256.185958258821</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>1013.622061704626</v>
       </c>
     </row>
     <row r="20">
@@ -5734,64 +5734,64 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>615.9842888225141</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="C22" t="n">
-        <v>444.0117257014301</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D22" t="n">
-        <v>444.0117257014301</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>277.8035198542836</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>105.9417456288441</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>1032.493025844838</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="Y22" t="n">
-        <v>806.1502575345799</v>
+        <v>929.2466917026181</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1312.058035980599</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>1085.715267670341</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3746.273422917372</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C28" t="n">
-        <v>3574.300859796288</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D28" t="n">
-        <v>3410.984086923059</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>3244.775881075912</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075912</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4961.909927713349</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>4961.909927713349</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4961.909927713349</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4680.198460321378</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W28" t="n">
-        <v>4405.346056493891</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X28" t="n">
-        <v>4162.782159939696</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="Y28" t="n">
-        <v>3936.439391629438</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="29">
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>683.9862940886057</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C31" t="n">
-        <v>683.9862940886057</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D31" t="n">
-        <v>683.9862940886057</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>1275.881236382407</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.1522628006715</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="32">
@@ -6709,13 +6709,13 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6779,13 +6779,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
         <v>1021.509065974867</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.2543031032136</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C34" t="n">
-        <v>847.2543031032136</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9375302299843</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6888,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2061.363789006915</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1781.179340507219</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1781.179340507219</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W34" t="n">
-        <v>1506.326936679732</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X34" t="n">
-        <v>1263.763040125537</v>
+        <v>1245.618398393177</v>
       </c>
       <c r="Y34" t="n">
-        <v>1037.420271815279</v>
+        <v>1019.275630082919</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7016,28 +7016,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>946.5481644506465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>1904.954843556791</v>
       </c>
       <c r="U37" t="n">
-        <v>1893.066105023813</v>
+        <v>1624.770395057095</v>
       </c>
       <c r="V37" t="n">
-        <v>1893.066105023813</v>
+        <v>1343.058927665124</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.213701196326</v>
+        <v>1343.058927665124</v>
       </c>
       <c r="X37" t="n">
-        <v>1375.649804642131</v>
+        <v>1100.495031110929</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>874.1522628006712</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7189,37 +7189,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V40" t="n">
-        <v>1550.684777446425</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W40" t="n">
-        <v>1550.684777446425</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X40" t="n">
-        <v>1550.684777446425</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y40" t="n">
-        <v>1324.342009136167</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
         <v>1364.825557038856</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.4203922683129</v>
+        <v>681.1568861517114</v>
       </c>
       <c r="C43" t="n">
-        <v>201.4478291472289</v>
+        <v>509.1843230306275</v>
       </c>
       <c r="D43" t="n">
-        <v>201.4478291472289</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E43" t="n">
-        <v>201.4478291472289</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358176</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302383</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100489</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976525</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656288</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578189</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818951</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338085</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.241345563985</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1589.05689706429</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1307.345429672318</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.493025844831</v>
+        <v>1097.665623174035</v>
       </c>
       <c r="X43" t="n">
-        <v>789.9291292906365</v>
+        <v>1097.665623174035</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.5863609803786</v>
+        <v>871.3228548637771</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063318</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261618</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988754</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883239</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623587</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,43 +7657,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N44" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>648.6278400003578</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M45" t="n">
-        <v>648.6278400003578</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N45" t="n">
-        <v>648.6278400003578</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
         <v>1364.825557038856</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.2177258288816</v>
+        <v>812.2850232837875</v>
       </c>
       <c r="C46" t="n">
-        <v>584.2177258288816</v>
+        <v>640.3124601627035</v>
       </c>
       <c r="D46" t="n">
         <v>584.2177258288816</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.48047715319</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.628073325703</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X46" t="n">
-        <v>960.064176771508</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.72140846125</v>
+        <v>1002.450991995853</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487783</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865918</v>
       </c>
       <c r="M2" t="n">
-        <v>135.3953010604167</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884151</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099931</v>
+        <v>158.4392851313992</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529642003</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873023</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662971</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761913</v>
+        <v>48.93033710269286</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587978</v>
+        <v>505.5475323587976</v>
       </c>
       <c r="Q3" t="n">
-        <v>315.5263794693004</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8139,10 +8139,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094664</v>
       </c>
       <c r="L4" t="n">
-        <v>151.3856805310635</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480852</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>465.9489063640446</v>
+        <v>96.76900350898819</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
@@ -8461,22 +8461,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>178.4700015426657</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,13 +8698,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1043.074428213578</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>262.4391237226421</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8780,10 +8780,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>659.4413150363887</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,10 +9014,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>761.8103878010206</v>
       </c>
       <c r="N15" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9026,7 +9026,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,16 +9254,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,13 +9403,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9485,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>273.92387204262</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10427,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10436,7 +10436,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>677.1461373703553</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10664,16 +10664,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
-        <v>997.2808002453501</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086323</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10910,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>979.1626539795797</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10919,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N44" t="n">
-        <v>882.1738474735962</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>574.3586489309258</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.98949189919253</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>91.00023684527477</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>137.8864645745642</v>
       </c>
       <c r="F16" t="n">
-        <v>80.82221241376472</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>99.59053326348513</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>11.23175659862085</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.9917581079248</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>50.46601071718399</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>16.74021185375918</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>123.2265937739274</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>118.3211618981294</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.122515685423</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.7694461881924</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>218.8062508731559</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>35.35636301287104</v>
       </c>
       <c r="U37" t="n">
-        <v>106.6313887632612</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.79471755090444</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>53.1048912880228</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>71.9894918991988</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>111.0890985356038</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.25566321890028</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>106.1498181540134</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449889.6758295057</v>
+        <v>449889.6758295056</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449889.6758295055</v>
+        <v>449889.6758295057</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>449889.6758295057</v>
+        <v>449889.6758295056</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449889.6758295055</v>
+        <v>449889.6758295057</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>567881.6013108838</v>
+      </c>
+      <c r="C2" t="n">
+        <v>567881.601310884</v>
+      </c>
+      <c r="D2" t="n">
         <v>567881.6013108839</v>
       </c>
-      <c r="C2" t="n">
-        <v>567881.6013108841</v>
-      </c>
-      <c r="D2" t="n">
-        <v>567881.6013108838</v>
-      </c>
       <c r="E2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="F2" t="n">
         <v>547979.6430590107</v>
       </c>
       <c r="G2" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590106</v>
       </c>
       <c r="H2" t="n">
-        <v>547979.6430590106</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="I2" t="n">
         <v>547979.6430590109</v>
       </c>
       <c r="J2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="K2" t="n">
         <v>547979.6430590111</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="O2" t="n">
         <v>547979.643059011</v>
       </c>
-      <c r="L2" t="n">
-        <v>547979.643059011</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547979.6430590113</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547979.6430590113</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547979.6430590107</v>
-      </c>
       <c r="P2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590109</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695916</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361188</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701952</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="F4" t="n">
-        <v>15116.1736579273</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792739</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="L4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15116.17365792743</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792733</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="P4" t="n">
-        <v>15116.17365792735</v>
+        <v>15116.17365792743</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216132</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178746.9669744364</v>
+        <v>178746.9669744363</v>
       </c>
       <c r="C6" t="n">
-        <v>328898.10403083</v>
+        <v>328898.1040308299</v>
       </c>
       <c r="D6" t="n">
-        <v>352304.9377044415</v>
+        <v>352304.9377044416</v>
       </c>
       <c r="E6" t="n">
-        <v>239374.0506560131</v>
+        <v>239323.0199938289</v>
       </c>
       <c r="F6" t="n">
-        <v>455113.4072126538</v>
+        <v>455062.3765504694</v>
       </c>
       <c r="G6" t="n">
-        <v>455113.407212654</v>
+        <v>455062.3765504693</v>
       </c>
       <c r="H6" t="n">
-        <v>455113.4072126535</v>
+        <v>455062.3765504695</v>
       </c>
       <c r="I6" t="n">
-        <v>455113.4072126537</v>
+        <v>455062.3765504694</v>
       </c>
       <c r="J6" t="n">
-        <v>328536.1386323649</v>
+        <v>328485.1079701803</v>
       </c>
       <c r="K6" t="n">
-        <v>436466.8068556344</v>
+        <v>436415.7761934501</v>
       </c>
       <c r="L6" t="n">
-        <v>455113.4072126538</v>
+        <v>455062.3765504694</v>
       </c>
       <c r="M6" t="n">
-        <v>275049.5357574865</v>
+        <v>274998.5050953017</v>
       </c>
       <c r="N6" t="n">
-        <v>455113.4072126542</v>
+        <v>455062.3765504693</v>
       </c>
       <c r="O6" t="n">
-        <v>455113.4072126538</v>
+        <v>455062.3765504696</v>
       </c>
       <c r="P6" t="n">
-        <v>455113.407212654</v>
+        <v>455062.3765504695</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539691</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539691</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162506</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539691</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162506</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539691</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162506</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>266.2210958770871</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>118.990324276486</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.2829239950389</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>170.2900229277113</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279.9424765091179</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>120.7436121680616</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>60.88629501226347</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7.743021135053027</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27912,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>350.504879224449</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>3.448658686901808</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="M2" t="n">
-        <v>97.96403816098486</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539691</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539691</v>
+        <v>121.0483257753751</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539691</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539691</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539691</v>
+        <v>25.75844738047063</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539691</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.7793411803219</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567545</v>
       </c>
       <c r="L4" t="n">
-        <v>129.4669206353623</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>510.5455990486534</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>75.42597529544652</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N6" t="n">
-        <v>444.6058781505029</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
@@ -35181,22 +35181,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>155.2981118204435</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,13 +35418,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1005.643165314146</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>225.048164366618</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>738.7136072886926</v>
       </c>
       <c r="N15" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.1371666366115</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>654.0493568580273</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
-        <v>974.1840197330221</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526082</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>956.0658734672517</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37940,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937687</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N44" t="n">
-        <v>844.8942246391501</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>551.8435622166962</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
